--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4509B38B-D3BF-394D-B7AD-2A40A2817C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1698B096-ABB2-8743-AC1B-287740A44F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -854,26 +854,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,8 +885,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1603,18 +1603,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="74"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -1786,10 +1786,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="76"/>
+      <c r="C1" s="80"/>
       <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
@@ -1798,10 +1798,10 @@
         <v>25</v>
       </c>
       <c r="G1" s="77"/>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="76"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="77" t="s">
         <v>114</v>
       </c>
@@ -1813,22 +1813,22 @@
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="75"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="78" t="s">
         <v>116</v>
       </c>
       <c r="G2" s="79"/>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="75"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="78" t="s">
         <v>118</v>
       </c>
@@ -2043,17 +2043,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2130,7 +2130,7 @@
         <v>44562</v>
       </c>
       <c r="E3" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2145,7 +2145,7 @@
         <v>44562</v>
       </c>
       <c r="E4" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,14 +2153,14 @@
         <v>12</v>
       </c>
       <c r="B5" s="58">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>44329</v>
       </c>
       <c r="E5" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2175,7 +2175,7 @@
         <v>44166</v>
       </c>
       <c r="E6" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2190,7 +2190,7 @@
         <v>44166</v>
       </c>
       <c r="E7" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>44166</v>
       </c>
       <c r="E8" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,7 +2220,7 @@
         <v>44166</v>
       </c>
       <c r="E9" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2228,14 +2228,14 @@
         <v>65</v>
       </c>
       <c r="B10" s="58">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11">
         <v>44166</v>
       </c>
       <c r="E10" s="58">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2243,15 +2243,14 @@
         <v>75</v>
       </c>
       <c r="B11" s="58">
-        <f>0.65*0.16</f>
-        <v>0.10400000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11">
         <v>44166</v>
       </c>
       <c r="E11" s="58">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2267,7 +2266,7 @@
         <v>44166</v>
       </c>
       <c r="E12" s="58">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2565,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2678,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2705,25 +2704,25 @@
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
       <c r="H1" s="30"/>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82" t="s">
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="81" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="81"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:16" s="72" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -3076,7 +3075,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="74" t="s">
         <v>161</v>
       </c>
       <c r="B9" s="11">
@@ -3085,43 +3084,43 @@
       <c r="C9" s="10">
         <v>0</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="74">
         <v>2.25</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="74">
         <v>1</v>
       </c>
-      <c r="F9" s="83">
+      <c r="H9" s="74">
         <v>1</v>
       </c>
-      <c r="G9" s="83">
-        <v>1</v>
-      </c>
-      <c r="H9" s="83">
-        <v>1</v>
-      </c>
-      <c r="I9" s="84">
+      <c r="I9" s="75">
         <v>0.5</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="75">
         <v>0.85</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="75">
         <v>0.5</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="75">
         <v>0.5</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="75">
         <v>0.85</v>
       </c>
-      <c r="N9" s="84">
+      <c r="N9" s="75">
         <v>0.5</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="74">
         <v>5</v>
       </c>
-      <c r="P9" s="83">
+      <c r="P9" s="74">
         <v>5</v>
       </c>
     </row>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1698B096-ABB2-8743-AC1B-287740A44F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D448D3C0-AE42-5F4E-B466-F45166F05EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2862,7 +2862,7 @@
         <v>0.75</v>
       </c>
       <c r="M4" s="58">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N4" s="58">
         <v>0.85</v>
@@ -2912,7 +2912,7 @@
         <v>0.75</v>
       </c>
       <c r="M5" s="58">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N5" s="58">
         <v>0.85</v>
@@ -2962,7 +2962,7 @@
         <v>0.75</v>
       </c>
       <c r="M6" s="58">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N6" s="58">
         <v>0.85</v>
@@ -3112,7 +3112,7 @@
         <v>0.5</v>
       </c>
       <c r="M9" s="75">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="N9" s="75">
         <v>0.5</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB396953-9F3D-D84E-966B-2D40F9E9FB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368B1469-105E-7B48-AC07-733AE893465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="166">
   <si>
     <t>Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Variant Name</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Hospitalization Multiplier</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Daily Increase in Number of Doses</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>Vaccine Efficacy for Susceptibility (%)</t>
   </si>
   <si>
@@ -444,12 +438,6 @@
     <t>Wild</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>J&amp;J</t>
   </si>
   <si>
@@ -519,7 +507,31 @@
     <t>duration_natural_years</t>
   </si>
   <si>
-    <t>IN</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>prior.infection.vaccine.scale</t>
+  </si>
+  <si>
+    <t>e.g. 0.8 = those with prior infection 20% less likely to get vaccinated than those without prior infection</t>
+  </si>
+  <si>
+    <t>child.transmission.scale</t>
+  </si>
+  <si>
+    <t>e.g. 0.7 = children age 0-11 are 30% less likely than adults to transmit if infected (due to biology and/or school mitigation)</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1326,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -1370,10 +1382,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4">
         <v>0.2</v>
@@ -1384,10 +1396,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="31">
         <v>5.0000000000000001E-3</v>
@@ -1416,7 +1428,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1530,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1526,7 +1538,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3">
         <v>50000</v>
@@ -1534,24 +1546,37 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.5</v>
+      </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="D12" s="52" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -1589,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1676,20 +1701,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>44362</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>43831</formula1>
       <formula2>44196</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{0F9A4B89-EC6B-724F-B775-2FCA661AAF65}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5" xr:uid="{0F9A4B89-EC6B-724F-B775-2FCA661AAF65}">
       <formula1>0</formula1>
       <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{5211C582-653B-1240-B539-BC7D547FCDE5}">
+      <formula1>43831</formula1>
+      <formula2>44561</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,15 +1848,15 @@
       </c>
       <c r="G1" s="79"/>
       <c r="H1" s="78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I1" s="78"/>
       <c r="J1" s="79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K1" s="79"/>
       <c r="L1" s="79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M1" s="79"/>
     </row>
@@ -1822,19 +1871,19 @@
       </c>
       <c r="E2" s="77"/>
       <c r="F2" s="80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="81"/>
       <c r="H2" s="77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K2" s="81"/>
       <c r="L2" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M2" s="36"/>
     </row>
@@ -1902,22 +1951,22 @@
         <v>54</v>
       </c>
       <c r="H4" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="K4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="L4" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="M4" s="43" t="s">
         <v>123</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2075,7 +2124,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2086,36 +2135,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="69" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2130,7 +2179,7 @@
         <v>44562</v>
       </c>
       <c r="E3" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2145,7 +2194,7 @@
         <v>44562</v>
       </c>
       <c r="E4" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2160,7 +2209,7 @@
         <v>44329</v>
       </c>
       <c r="E5" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2175,7 +2224,7 @@
         <v>44166</v>
       </c>
       <c r="E6" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2190,7 +2239,7 @@
         <v>44166</v>
       </c>
       <c r="E7" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2205,7 +2254,7 @@
         <v>44166</v>
       </c>
       <c r="E8" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,7 +2269,7 @@
         <v>44166</v>
       </c>
       <c r="E9" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2250,7 +2299,7 @@
         <v>44166</v>
       </c>
       <c r="E11" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2266,7 +2315,7 @@
         <v>44166</v>
       </c>
       <c r="E12" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2300,13 +2349,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2314,13 +2363,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2565,7 +2614,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2583,10 +2632,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2597,46 +2646,46 @@
         <v>11</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="22">
-        <v>44317</v>
+        <v>44362</v>
       </c>
       <c r="D3" s="22">
-        <v>44317</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="19">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="19">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="21">
         <v>0</v>
@@ -2647,16 +2696,16 @@
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="19">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="19">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2678,7 +2727,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2710,17 +2759,17 @@
       <c r="G1" s="82"/>
       <c r="H1" s="30"/>
       <c r="I1" s="84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J1" s="84"/>
       <c r="K1" s="84"/>
       <c r="L1" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M1" s="84"/>
       <c r="N1" s="84"/>
       <c r="O1" s="83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P1" s="83"/>
     </row>
@@ -2729,110 +2778,110 @@
         <v>70</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O2" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="C3" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="F3" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>92</v>
-      </c>
       <c r="H3" s="64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I3" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="M3" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="64" t="s">
-        <v>89</v>
-      </c>
       <c r="N3" s="64" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O3" s="64" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="11">
-        <v>44221</v>
+        <v>44242</v>
       </c>
       <c r="C4" s="10">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="57">
         <v>1</v>
@@ -2847,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="10">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I4" s="58">
         <v>0.75</v>
@@ -2859,7 +2908,7 @@
         <v>0.67</v>
       </c>
       <c r="L4" s="58">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="M4" s="58">
         <v>0.95</v>
@@ -2876,13 +2925,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B5" s="11">
-        <v>44221</v>
+        <v>44362</v>
       </c>
       <c r="C5" s="10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="10">
         <v>1.5</v>
@@ -2894,7 +2943,7 @@
         <v>1.5</v>
       </c>
       <c r="G5" s="10">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="H5" s="10">
         <v>1</v>
@@ -2909,7 +2958,7 @@
         <v>0.67</v>
       </c>
       <c r="L5" s="58">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="M5" s="58">
         <v>0.95</v>
@@ -2926,13 +2975,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B6" s="11">
-        <v>44221</v>
+        <v>44242</v>
       </c>
       <c r="C6" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="10">
         <v>1.25</v>
@@ -2947,7 +2996,7 @@
         <v>1.034</v>
       </c>
       <c r="H6" s="10">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I6" s="58">
         <v>0.75</v>
@@ -2959,7 +3008,7 @@
         <v>0.67</v>
       </c>
       <c r="L6" s="58">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="M6" s="58">
         <v>0.95</v>
@@ -2976,13 +3025,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="B7" s="11">
-        <v>44221</v>
+        <v>44362</v>
       </c>
       <c r="C7" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="10">
         <v>1.8</v>
@@ -2994,7 +3043,7 @@
         <v>1.5</v>
       </c>
       <c r="G7" s="10">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="H7" s="10">
         <v>1</v>
@@ -3026,10 +3075,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B8" s="11">
-        <v>44221</v>
+        <v>44362</v>
       </c>
       <c r="C8" s="10">
         <v>0</v>
@@ -3044,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
@@ -3076,13 +3125,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" s="11">
-        <v>44221</v>
+        <v>44362</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D9" s="74">
         <v>2.25</v>
@@ -3094,10 +3143,10 @@
         <v>1.5</v>
       </c>
       <c r="G9" s="74">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H9" s="74">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="I9" s="75">
         <v>0.5</v>
@@ -3106,16 +3155,16 @@
         <v>0.88</v>
       </c>
       <c r="K9" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="75">
-        <v>0.8</v>
+        <v>0.6</v>
+      </c>
+      <c r="L9" s="58">
+        <v>0.9</v>
       </c>
       <c r="M9" s="75">
         <v>0.95</v>
       </c>
       <c r="N9" s="75">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O9" s="74">
         <v>5</v>
@@ -3166,7 +3215,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3223,7 +3272,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -3234,10 +3283,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4">
         <v>0.3</v>
@@ -3245,10 +3294,10 @@
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4">
         <v>0.3</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368B1469-105E-7B48-AC07-733AE893465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9E3257-9160-B140-9BDE-AE3D1C343D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -871,22 +871,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1616,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1835,53 +1835,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79" t="s">
+      <c r="I1" s="80"/>
+      <c r="J1" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="79"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="80" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="77" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="80" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="81"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="35" t="s">
         <v>117</v>
       </c>
@@ -2092,17 +2092,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2726,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3155,7 +3155,7 @@
         <v>0.88</v>
       </c>
       <c r="K9" s="75">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="58">
         <v>0.9</v>
@@ -3164,7 +3164,7 @@
         <v>0.95</v>
       </c>
       <c r="N9" s="75">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O9" s="74">
         <v>5</v>
